--- a/Module_1/Class_3/Class_3_Activities/03-Stu_LineAndBar/Unsolved/student_grades.xlsx
+++ b/Module_1/Class_3/Class_3_Activities/03-Stu_LineAndBar/Unsolved/student_grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/03-Stu_LineAndBar/Unsolved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06d23b41cf651141/Desktop/Activities/Module_1/Class_3/Class_3_Activities/03-Stu_LineAndBar/Unsolved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11C6CF-7FE8-144E-A1A7-5A6B159B58F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{CF11C6CF-7FE8-144E-A1A7-5A6B159B58F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272689A8-AF8A-48A9-A74C-628D89ED5CBF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14380" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,6 +159,7602 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7F2-48BF-8D80-38AEA9271D92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1114649871"/>
+        <c:axId val="1121065855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1114649871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1121065855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1121065855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114649871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA6E-4BCF-BEAE-408D010D44D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1114642191"/>
+        <c:axId val="1119387791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1114642191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1119387791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1119387791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114642191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EA1-4960-BD51-47717FF5731E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1112197471"/>
+        <c:axId val="1120893679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1112197471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1120893679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1120893679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1112197471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2402-4DB6-90A0-DDF839A84A8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1114631631"/>
+        <c:axId val="1140860047"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1114631631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1140860047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1140860047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114631631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F5F-4910-9C38-739B61D5183E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1041073263"/>
+        <c:axId val="1112252607"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1041073263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1112252607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1112252607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1041073263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D79D-4969-9601-0F247D36D430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1114628271"/>
+        <c:axId val="1120551487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1114628271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1120551487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1120551487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114628271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grade</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Over Semester</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F600-43F1-9075-1C87E9E8517E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F600-43F1-9075-1C87E9E8517E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F600-43F1-9075-1C87E9E8517E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F600-43F1-9075-1C87E9E8517E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F600-43F1-9075-1C87E9E8517E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F600-43F1-9075-1C87E9E8517E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1157237743"/>
+        <c:axId val="624649087"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1157237743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624649087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624649087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1157237743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="24">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>218515</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>543486</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3D2445-96C7-CBA1-66FE-358821CB110A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>711573</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077C9DC8-2828-B239-420B-85457C05D4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>677956</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>229720</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0509C58-66CF-FC54-07C4-63B78C252097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>218514</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>543485</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FC40E8-0A32-21CB-6E78-C6E4C97F51A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>229721</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>146796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>554692</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>32496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949F18B2-B8AC-6AA2-52D7-12B85639EEA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>677956</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>135591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>229720</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>21291</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1FA455-B970-0B75-BBBD-9BAC9464E099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>319366</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>324969</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>189379</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3262BA60-B05B-054F-656A-4D47329FFBC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,16 +8057,16 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="12" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -490,7 +8086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +8114,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -546,7 +8142,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -574,7 +8170,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,7 +8198,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,7 +8226,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,7 +8254,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -686,7 +8282,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -714,7 +8310,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -742,7 +8338,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -770,7 +8366,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -798,7 +8394,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -826,7 +8422,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -854,7 +8450,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -882,7 +8478,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -910,7 +8506,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -938,7 +8534,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -966,7 +8562,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -994,7 +8590,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1022,7 +8618,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1052,5 +8648,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>